--- a/data/pca/factorExposure/factorExposure_2017-06-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02374191808765676</v>
+        <v>-0.008888660495205565</v>
       </c>
       <c r="C2">
-        <v>-0.002469915554569047</v>
+        <v>0.04427841527054521</v>
       </c>
       <c r="D2">
-        <v>0.03260587836566827</v>
+        <v>0.02996689839006773</v>
       </c>
       <c r="E2">
-        <v>-0.01044319159770591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03323775851703192</v>
+      </c>
+      <c r="F2">
+        <v>-0.01078460240932228</v>
+      </c>
+      <c r="G2">
+        <v>-0.08547238328047617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01884515385727065</v>
+        <v>-0.04393372956086077</v>
       </c>
       <c r="C3">
-        <v>0.0541934928438923</v>
+        <v>0.09439165252408591</v>
       </c>
       <c r="D3">
-        <v>0.07260561797882818</v>
+        <v>0.01663969976824992</v>
       </c>
       <c r="E3">
-        <v>-0.02130650081022985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.0993740615845916</v>
+      </c>
+      <c r="F3">
+        <v>-0.009459183497272448</v>
+      </c>
+      <c r="G3">
+        <v>-0.162771762586995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0251479137125374</v>
+        <v>-0.05571411230936587</v>
       </c>
       <c r="C4">
-        <v>0.01696638976390389</v>
+        <v>0.06816606451871365</v>
       </c>
       <c r="D4">
-        <v>0.08303281975302484</v>
+        <v>0.02454947503984885</v>
       </c>
       <c r="E4">
-        <v>0.01648376073108183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02602239916049173</v>
+      </c>
+      <c r="F4">
+        <v>-0.0124145629023633</v>
+      </c>
+      <c r="G4">
+        <v>-0.09234302025460703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01501405128108855</v>
+        <v>-0.03740582809092383</v>
       </c>
       <c r="C6">
-        <v>0.0032266756021023</v>
+        <v>0.05323486433372197</v>
       </c>
       <c r="D6">
-        <v>0.08381019545228517</v>
+        <v>0.0165929183264926</v>
       </c>
       <c r="E6">
-        <v>0.008520715610629358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02598968159956267</v>
+      </c>
+      <c r="F6">
+        <v>-0.01064360124911434</v>
+      </c>
+      <c r="G6">
+        <v>-0.0639536662711946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01180994274021934</v>
+        <v>-0.01983342034859611</v>
       </c>
       <c r="C7">
-        <v>0.008737912598487628</v>
+        <v>0.04110570524511631</v>
       </c>
       <c r="D7">
-        <v>0.04238156859977055</v>
+        <v>0.01328306298445976</v>
       </c>
       <c r="E7">
-        <v>0.05852208713527084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004703940570702894</v>
+      </c>
+      <c r="F7">
+        <v>0.002741844713271158</v>
+      </c>
+      <c r="G7">
+        <v>-0.1236229289039653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007570396874815984</v>
+        <v>-0.002445180243448259</v>
       </c>
       <c r="C8">
-        <v>4.717725587197844e-05</v>
+        <v>0.02433826394913571</v>
       </c>
       <c r="D8">
-        <v>0.008128186276594082</v>
+        <v>0.003973644275917056</v>
       </c>
       <c r="E8">
-        <v>0.008366967613960217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02174063436018086</v>
+      </c>
+      <c r="F8">
+        <v>-0.007016632295526842</v>
+      </c>
+      <c r="G8">
+        <v>-0.06038463066128688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01736615827645793</v>
+        <v>-0.03279431021186348</v>
       </c>
       <c r="C9">
-        <v>0.01686737166003156</v>
+        <v>0.04966224566253311</v>
       </c>
       <c r="D9">
-        <v>0.0614389333082556</v>
+        <v>0.01687622099693873</v>
       </c>
       <c r="E9">
-        <v>0.006844418971804287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01742035817152973</v>
+      </c>
+      <c r="F9">
+        <v>-0.01036052979172821</v>
+      </c>
+      <c r="G9">
+        <v>-0.08925861246030559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02624133335111242</v>
+        <v>-0.09873245586691465</v>
       </c>
       <c r="C10">
-        <v>0.1662208238167569</v>
+        <v>-0.1809732707231319</v>
       </c>
       <c r="D10">
-        <v>-0.09948003947805187</v>
+        <v>-0.01451205606650246</v>
       </c>
       <c r="E10">
-        <v>-0.01333764492757339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02044541456135395</v>
+      </c>
+      <c r="F10">
+        <v>0.02124576712258598</v>
+      </c>
+      <c r="G10">
+        <v>-0.0600539576621839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.001330576830665945</v>
+        <v>-0.03412954194356341</v>
       </c>
       <c r="C11">
-        <v>0.006075971120967686</v>
+        <v>0.05480024921609188</v>
       </c>
       <c r="D11">
-        <v>0.05105087083947386</v>
+        <v>0.002432010723733996</v>
       </c>
       <c r="E11">
-        <v>-0.002855905721158662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009264213657066383</v>
+      </c>
+      <c r="F11">
+        <v>-0.02215754472993537</v>
+      </c>
+      <c r="G11">
+        <v>-0.0731604969989864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006155897487481164</v>
+        <v>-0.03559371899495511</v>
       </c>
       <c r="C12">
-        <v>0.007541774795738963</v>
+        <v>0.04896982968413389</v>
       </c>
       <c r="D12">
-        <v>0.045747459448708</v>
+        <v>0.006196476353356887</v>
       </c>
       <c r="E12">
-        <v>0.01011467230792682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0009041255931747114</v>
+      </c>
+      <c r="F12">
+        <v>-0.001442135780109609</v>
+      </c>
+      <c r="G12">
+        <v>-0.06965121679281767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02489431315309409</v>
+        <v>-0.01494471451235457</v>
       </c>
       <c r="C13">
-        <v>0.01919108782889195</v>
+        <v>0.03973515223123162</v>
       </c>
       <c r="D13">
-        <v>0.02136080663519149</v>
+        <v>0.0263716356230436</v>
       </c>
       <c r="E13">
-        <v>-0.01008358844394261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03009337544988815</v>
+      </c>
+      <c r="F13">
+        <v>-0.007789530611992328</v>
+      </c>
+      <c r="G13">
+        <v>-0.1059403197041683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009186442058448596</v>
+        <v>-0.007844934640326203</v>
       </c>
       <c r="C14">
-        <v>0.01436033090686489</v>
+        <v>0.0279381197076633</v>
       </c>
       <c r="D14">
-        <v>0.0116303126068302</v>
+        <v>0.009701073395427579</v>
       </c>
       <c r="E14">
-        <v>0.007587521634315644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0008109118566504985</v>
+      </c>
+      <c r="F14">
+        <v>0.0069489432247758</v>
+      </c>
+      <c r="G14">
+        <v>-0.09129480830445506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002183193888620434</v>
+        <v>-0.03289581733370358</v>
       </c>
       <c r="C16">
-        <v>0.01156232729553387</v>
+        <v>0.04850687122369682</v>
       </c>
       <c r="D16">
-        <v>0.05092712198056837</v>
+        <v>0.001948677519906315</v>
       </c>
       <c r="E16">
-        <v>0.007945191996614054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007867711558572826</v>
+      </c>
+      <c r="F16">
+        <v>-0.0029536340934205</v>
+      </c>
+      <c r="G16">
+        <v>-0.07683748574179204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01564368736231283</v>
+        <v>-0.02021133077669413</v>
       </c>
       <c r="C19">
-        <v>0.01949131484582691</v>
+        <v>0.05265448047890543</v>
       </c>
       <c r="D19">
-        <v>0.03125223310646457</v>
+        <v>0.01902916891613186</v>
       </c>
       <c r="E19">
-        <v>0.002739291563938568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06749235951824198</v>
+      </c>
+      <c r="F19">
+        <v>-0.02267808180336178</v>
+      </c>
+      <c r="G19">
+        <v>-0.1231182625407644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01175604549127603</v>
+        <v>-0.01409280799784852</v>
       </c>
       <c r="C20">
-        <v>0.007959758768089235</v>
+        <v>0.03919790495857391</v>
       </c>
       <c r="D20">
-        <v>0.02622215142872553</v>
+        <v>0.0142400984883395</v>
       </c>
       <c r="E20">
-        <v>-0.01288287829966347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02848201818616485</v>
+      </c>
+      <c r="F20">
+        <v>0.009585622854591287</v>
+      </c>
+      <c r="G20">
+        <v>-0.09742988941776128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01624223930567556</v>
+        <v>-0.01248278678789215</v>
       </c>
       <c r="C21">
-        <v>0.01910952575459092</v>
+        <v>0.03970497333338115</v>
       </c>
       <c r="D21">
-        <v>0.03089630221356123</v>
+        <v>0.01854616853840179</v>
       </c>
       <c r="E21">
-        <v>0.01188910677801071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04085877121735854</v>
+      </c>
+      <c r="F21">
+        <v>-0.0004302908504491592</v>
+      </c>
+      <c r="G21">
+        <v>-0.1254419186208618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.000612233585018934</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002589104740676059</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002551111735545819</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0008928919915819348</v>
+      </c>
+      <c r="F22">
+        <v>-0.0002083770123552875</v>
+      </c>
+      <c r="G22">
+        <v>-0.002192943145869879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006165672590539458</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.000258545926997958</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002552417607515417</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0008983553993783726</v>
+      </c>
+      <c r="F23">
+        <v>-0.0002065955494885743</v>
+      </c>
+      <c r="G23">
+        <v>-0.002202214178505281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004825077539656017</v>
+        <v>-0.02766819131063489</v>
       </c>
       <c r="C24">
-        <v>-0.0001258487738792488</v>
+        <v>0.05125722912124494</v>
       </c>
       <c r="D24">
-        <v>0.04840761403545881</v>
+        <v>0.007214253497953208</v>
       </c>
       <c r="E24">
-        <v>0.006297441711719497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004964319950301376</v>
+      </c>
+      <c r="F24">
+        <v>-0.01459737670785942</v>
+      </c>
+      <c r="G24">
+        <v>-0.07632750914862092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01307779016021138</v>
+        <v>-0.042179708069089</v>
       </c>
       <c r="C25">
-        <v>0.01659341309185142</v>
+        <v>0.05879793499237637</v>
       </c>
       <c r="D25">
-        <v>0.05277644415045604</v>
+        <v>0.01116117112537192</v>
       </c>
       <c r="E25">
-        <v>0.005137631179804913</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.002182592392457635</v>
+      </c>
+      <c r="F25">
+        <v>-0.008541304631220197</v>
+      </c>
+      <c r="G25">
+        <v>-0.0828996176019749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02357834560189353</v>
+        <v>-0.01390094377277322</v>
       </c>
       <c r="C26">
-        <v>0.008083782429035629</v>
+        <v>0.01175258578398176</v>
       </c>
       <c r="D26">
-        <v>-0.00331106276159352</v>
+        <v>0.02383218749932075</v>
       </c>
       <c r="E26">
-        <v>0.007801979383906806</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.005352124105331739</v>
+      </c>
+      <c r="F26">
+        <v>0.007997161884913109</v>
+      </c>
+      <c r="G26">
+        <v>-0.07229060258268778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05063803114672417</v>
+        <v>-0.1267015023262277</v>
       </c>
       <c r="C28">
-        <v>0.2338310069675841</v>
+        <v>-0.2357288869811759</v>
       </c>
       <c r="D28">
-        <v>-0.1448253163803466</v>
+        <v>-0.005421411708666995</v>
       </c>
       <c r="E28">
-        <v>0.00927864997711372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.007283012202355354</v>
+      </c>
+      <c r="F28">
+        <v>0.01711937048110748</v>
+      </c>
+      <c r="G28">
+        <v>-0.06523379707038852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009566467293153752</v>
+        <v>-0.009165484399245456</v>
       </c>
       <c r="C29">
-        <v>0.01824074873788925</v>
+        <v>0.0217284568214868</v>
       </c>
       <c r="D29">
-        <v>0.009956743121482051</v>
+        <v>0.008645075499650079</v>
       </c>
       <c r="E29">
-        <v>0.002497454692851784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.0004750512098483888</v>
+      </c>
+      <c r="F29">
+        <v>0.01483705863674108</v>
+      </c>
+      <c r="G29">
+        <v>-0.08226474763906147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02491161788975976</v>
+        <v>-0.04080627851889525</v>
       </c>
       <c r="C30">
-        <v>0.003814607044584012</v>
+        <v>0.06852290920203845</v>
       </c>
       <c r="D30">
-        <v>0.07681911211843798</v>
+        <v>0.02900946842887516</v>
       </c>
       <c r="E30">
-        <v>-0.04464519822436083</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05149735618498789</v>
+      </c>
+      <c r="F30">
+        <v>-0.04987332138316655</v>
+      </c>
+      <c r="G30">
+        <v>-0.09226914133142732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01150180966985185</v>
+        <v>-0.05270591930756039</v>
       </c>
       <c r="C31">
-        <v>0.04120740888853037</v>
+        <v>0.03762572364241765</v>
       </c>
       <c r="D31">
-        <v>0.03965330299209636</v>
+        <v>0.003655424738020712</v>
       </c>
       <c r="E31">
-        <v>0.008966107296438068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.003162513315325414</v>
+      </c>
+      <c r="F31">
+        <v>0.03958516285075252</v>
+      </c>
+      <c r="G31">
+        <v>-0.08119030116407808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004956721148851055</v>
+        <v>-0.001227780725128961</v>
       </c>
       <c r="C32">
-        <v>0.01941958567996346</v>
+        <v>0.02468457961520213</v>
       </c>
       <c r="D32">
-        <v>0.0006830874920067929</v>
+        <v>-0.00372530937412128</v>
       </c>
       <c r="E32">
-        <v>0.05228313713806062</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01645030981571224</v>
+      </c>
+      <c r="F32">
+        <v>-0.03962824567344417</v>
+      </c>
+      <c r="G32">
+        <v>-0.09416772784334823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01563237783210351</v>
+        <v>-0.02706118155725193</v>
       </c>
       <c r="C33">
-        <v>0.02662939427323886</v>
+        <v>0.04982228086909348</v>
       </c>
       <c r="D33">
-        <v>0.03852327634269507</v>
+        <v>0.01567585619083351</v>
       </c>
       <c r="E33">
-        <v>-0.02828446988728371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03438059191098961</v>
+      </c>
+      <c r="F33">
+        <v>-0.01790718319618299</v>
+      </c>
+      <c r="G33">
+        <v>-0.1226262103148129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003148547630675177</v>
+        <v>-0.03998447040690978</v>
       </c>
       <c r="C34">
-        <v>0.01767235179469447</v>
+        <v>0.06149188519662686</v>
       </c>
       <c r="D34">
-        <v>0.05419969034696946</v>
+        <v>-0.004628995409140211</v>
       </c>
       <c r="E34">
-        <v>0.01318827674201996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0007649798376641264</v>
+      </c>
+      <c r="F34">
+        <v>-0.02063779777386274</v>
+      </c>
+      <c r="G34">
+        <v>-0.08418810669552824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01385918698786546</v>
+        <v>-0.01560098520524845</v>
       </c>
       <c r="C36">
-        <v>0.01895682333595149</v>
+        <v>0.009218728206363979</v>
       </c>
       <c r="D36">
-        <v>0.004882376367420763</v>
+        <v>0.01220403808424824</v>
       </c>
       <c r="E36">
-        <v>0.004146452109165052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.003473940375080357</v>
+      </c>
+      <c r="F36">
+        <v>0.005818631452298551</v>
+      </c>
+      <c r="G36">
+        <v>-0.07376977992994485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.001076168672084376</v>
+        <v>-0.03216207918159245</v>
       </c>
       <c r="C38">
-        <v>0.03741240750272755</v>
+        <v>0.03172297584102438</v>
       </c>
       <c r="D38">
-        <v>0.04725065832950161</v>
+        <v>-0.007548895139252987</v>
       </c>
       <c r="E38">
-        <v>0.005604033797867751</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002829033474542308</v>
+      </c>
+      <c r="F38">
+        <v>0.0173696867037161</v>
+      </c>
+      <c r="G38">
+        <v>-0.07442205344451448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004708418244697486</v>
+        <v>-0.03474548152509442</v>
       </c>
       <c r="C39">
-        <v>-0.01861013054827695</v>
+        <v>0.08081617158282825</v>
       </c>
       <c r="D39">
-        <v>0.09746173666778596</v>
+        <v>0.01174844076485245</v>
       </c>
       <c r="E39">
-        <v>-0.006951018344081155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02043196575525352</v>
+      </c>
+      <c r="F39">
+        <v>-0.02674810271738832</v>
+      </c>
+      <c r="G39">
+        <v>-0.07439058454049072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0131541305918249</v>
+        <v>-0.01536953031261576</v>
       </c>
       <c r="C40">
-        <v>0.01679360862588142</v>
+        <v>0.0432321309493088</v>
       </c>
       <c r="D40">
-        <v>0.03520068364778657</v>
+        <v>0.01486971483114237</v>
       </c>
       <c r="E40">
-        <v>0.005412051711320999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02100865403836224</v>
+      </c>
+      <c r="F40">
+        <v>0.01361958177467182</v>
+      </c>
+      <c r="G40">
+        <v>-0.1097689671825696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006974518570689561</v>
+        <v>-0.0191735386016284</v>
       </c>
       <c r="C41">
-        <v>0.02030978172657436</v>
+        <v>0.001087617832553854</v>
       </c>
       <c r="D41">
-        <v>-0.00919315692179566</v>
+        <v>0.004279860501167037</v>
       </c>
       <c r="E41">
-        <v>0.002429685874560756</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001490713464360625</v>
+      </c>
+      <c r="F41">
+        <v>0.01221909740217739</v>
+      </c>
+      <c r="G41">
+        <v>-0.06246268093865807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09060314899131131</v>
+        <v>-0.008772700165017418</v>
       </c>
       <c r="C42">
-        <v>-0.03236128093237458</v>
+        <v>0.03762509023324179</v>
       </c>
       <c r="D42">
-        <v>0.210305975440212</v>
+        <v>0.09191344421393548</v>
       </c>
       <c r="E42">
-        <v>-0.3889675856819316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.0181705947598384</v>
+      </c>
+      <c r="F42">
+        <v>0.03768083699907817</v>
+      </c>
+      <c r="G42">
+        <v>0.1548297559049199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008411475612941068</v>
+        <v>-0.03283396887339704</v>
       </c>
       <c r="C43">
-        <v>0.02517678139538908</v>
+        <v>0.01691378578481817</v>
       </c>
       <c r="D43">
-        <v>-0.008257421639495813</v>
+        <v>0.006047473556878034</v>
       </c>
       <c r="E43">
-        <v>-7.855384010618467e-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01512709715921209</v>
+      </c>
+      <c r="F43">
+        <v>0.002582328820267456</v>
+      </c>
+      <c r="G43">
+        <v>-0.09212362320100581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003940637057807134</v>
+        <v>-0.01196383439529385</v>
       </c>
       <c r="C44">
-        <v>0.006154770324533236</v>
+        <v>0.05882915789697566</v>
       </c>
       <c r="D44">
-        <v>0.0480994678947694</v>
+        <v>0.006717436776310624</v>
       </c>
       <c r="E44">
-        <v>0.006154347105275508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01730855729155253</v>
+      </c>
+      <c r="F44">
+        <v>0.007319535668022485</v>
+      </c>
+      <c r="G44">
+        <v>-0.08971208314603499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01172458429408702</v>
+        <v>-0.007933304334807208</v>
       </c>
       <c r="C46">
-        <v>0.0129066951789874</v>
+        <v>0.01731267282134756</v>
       </c>
       <c r="D46">
-        <v>0.007484863572303247</v>
+        <v>0.01234824380784129</v>
       </c>
       <c r="E46">
-        <v>-0.002846523663857041</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0001008546960324303</v>
+      </c>
+      <c r="F46">
+        <v>0.01451025186252581</v>
+      </c>
+      <c r="G46">
+        <v>-0.08444231789775365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.006248548976828116</v>
+        <v>-0.07702547588831096</v>
       </c>
       <c r="C47">
-        <v>0.05078777379969508</v>
+        <v>0.06675682820886862</v>
       </c>
       <c r="D47">
-        <v>0.07095844590817617</v>
+        <v>-0.005288975597628419</v>
       </c>
       <c r="E47">
-        <v>0.007843680869753145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008743914867114103</v>
+      </c>
+      <c r="F47">
+        <v>0.05473181966573766</v>
+      </c>
+      <c r="G47">
+        <v>-0.0735858594196656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005208437148516456</v>
+        <v>-0.02008736883339849</v>
       </c>
       <c r="C48">
-        <v>0.02529003680289924</v>
+        <v>0.01268156973601095</v>
       </c>
       <c r="D48">
-        <v>0.01645909881022057</v>
+        <v>0.001595216349862783</v>
       </c>
       <c r="E48">
-        <v>0.002177666602241318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0005646181343152979</v>
+      </c>
+      <c r="F48">
+        <v>0.02002501047031287</v>
+      </c>
+      <c r="G48">
+        <v>-0.07852260761472366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.008237656740970144</v>
+        <v>-0.07516466461591517</v>
       </c>
       <c r="C50">
-        <v>0.05369966986915964</v>
+        <v>0.07016480782979374</v>
       </c>
       <c r="D50">
-        <v>0.0666457307865248</v>
+        <v>-0.002975941519862731</v>
       </c>
       <c r="E50">
-        <v>0.03371126080189026</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01053669382174299</v>
+      </c>
+      <c r="F50">
+        <v>0.05673827553706521</v>
+      </c>
+      <c r="G50">
+        <v>-0.08990924356322744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008232150605101079</v>
+        <v>-0.01359017820572545</v>
       </c>
       <c r="C51">
-        <v>0.01475292925599231</v>
+        <v>0.03524854363077903</v>
       </c>
       <c r="D51">
-        <v>0.00779424019856176</v>
+        <v>0.01034963672700191</v>
       </c>
       <c r="E51">
-        <v>0.003987019645691699</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01809328201202654</v>
+      </c>
+      <c r="F51">
+        <v>-0.02570206870560535</v>
+      </c>
+      <c r="G51">
+        <v>-0.1111012278951091</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01023629991358544</v>
+        <v>-0.08166742198233777</v>
       </c>
       <c r="C53">
-        <v>0.06419026560812026</v>
+        <v>0.08481828279158495</v>
       </c>
       <c r="D53">
-        <v>0.1226375387477566</v>
+        <v>-0.004110661209685364</v>
       </c>
       <c r="E53">
-        <v>0.01772052060181417</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02793881565277499</v>
+      </c>
+      <c r="F53">
+        <v>0.06660131715188809</v>
+      </c>
+      <c r="G53">
+        <v>-0.0719508022212749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002929711598152084</v>
+        <v>-0.02931852495985562</v>
       </c>
       <c r="C54">
-        <v>0.03404112949522922</v>
+        <v>0.01596663336133757</v>
       </c>
       <c r="D54">
-        <v>-0.004352570476589825</v>
+        <v>-0.001265893535961291</v>
       </c>
       <c r="E54">
-        <v>-0.003211990732704147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01208667945773018</v>
+      </c>
+      <c r="F54">
+        <v>-0.001542424252674123</v>
+      </c>
+      <c r="G54">
+        <v>-0.08583982080861496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005494070573691781</v>
+        <v>-0.07082742706695025</v>
       </c>
       <c r="C55">
-        <v>0.0408632845505833</v>
+        <v>0.06880627387806691</v>
       </c>
       <c r="D55">
-        <v>0.1001565891868977</v>
+        <v>-0.005349396481787178</v>
       </c>
       <c r="E55">
-        <v>5.939817655051943e-05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02389521385121528</v>
+      </c>
+      <c r="F55">
+        <v>0.06251345141791305</v>
+      </c>
+      <c r="G55">
+        <v>-0.04488075024348862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.009981240209131182</v>
+        <v>-0.1376586913700249</v>
       </c>
       <c r="C56">
-        <v>0.08863854712428873</v>
+        <v>0.1084568071534671</v>
       </c>
       <c r="D56">
-        <v>0.1572428689507254</v>
+        <v>-0.01295053585479679</v>
       </c>
       <c r="E56">
-        <v>0.008962038127148065</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03347634720155161</v>
+      </c>
+      <c r="F56">
+        <v>0.08104049846883998</v>
+      </c>
+      <c r="G56">
+        <v>-0.02049123908973208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02469805751530487</v>
+        <v>-0.006777246665559272</v>
       </c>
       <c r="C57">
-        <v>0.01059031027200787</v>
+        <v>0.009424980003673228</v>
       </c>
       <c r="D57">
-        <v>0.0567459666599659</v>
+        <v>0.0235356428368979</v>
       </c>
       <c r="E57">
-        <v>-0.007535789403023367</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02449972706447407</v>
+      </c>
+      <c r="F57">
+        <v>-0.008468077468402474</v>
+      </c>
+      <c r="G57">
+        <v>-0.02921433844326688</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01605495526990633</v>
+        <v>-0.05501059200624548</v>
       </c>
       <c r="C58">
-        <v>0.06888763801741243</v>
+        <v>0.05586415020750379</v>
       </c>
       <c r="D58">
-        <v>0.1637053302218543</v>
+        <v>0.02682059780914004</v>
       </c>
       <c r="E58">
-        <v>-0.5052692039880459</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9321734198348076</v>
+      </c>
+      <c r="F58">
+        <v>0.2453617029217699</v>
+      </c>
+      <c r="G58">
+        <v>0.1219382883561597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.05081744017342531</v>
+        <v>-0.1604135922396544</v>
       </c>
       <c r="C59">
-        <v>0.260053487348259</v>
+        <v>-0.2031249682045016</v>
       </c>
       <c r="D59">
-        <v>-0.1434265275308256</v>
+        <v>-0.01076755534127155</v>
       </c>
       <c r="E59">
-        <v>0.006183037804894045</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01962499566112972</v>
+      </c>
+      <c r="F59">
+        <v>-0.004407267314541214</v>
+      </c>
+      <c r="G59">
+        <v>-0.041488189902465</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04820775689984329</v>
+        <v>-0.2861935660854866</v>
       </c>
       <c r="C60">
-        <v>0.1653906201045279</v>
+        <v>0.1073482090238883</v>
       </c>
       <c r="D60">
-        <v>0.09578394465044154</v>
+        <v>0.01309140661638441</v>
       </c>
       <c r="E60">
-        <v>0.01538640489815774</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.002553843636096877</v>
+      </c>
+      <c r="F60">
+        <v>-0.3499450750253516</v>
+      </c>
+      <c r="G60">
+        <v>0.1297223387575375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.004173899066878451</v>
+        <v>-0.03695471417269677</v>
       </c>
       <c r="C61">
-        <v>0.0086983222397844</v>
+        <v>0.06737491236295777</v>
       </c>
       <c r="D61">
-        <v>0.07087525858427206</v>
+        <v>0.005250121818031764</v>
       </c>
       <c r="E61">
-        <v>0.005840005821289146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01302494128315421</v>
+      </c>
+      <c r="F61">
+        <v>-0.0149211153238621</v>
+      </c>
+      <c r="G61">
+        <v>-0.07585811541779143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008420001308985599</v>
+        <v>-0.01395555610499543</v>
       </c>
       <c r="C63">
-        <v>0.006666889063098078</v>
+        <v>0.02959232939782338</v>
       </c>
       <c r="D63">
-        <v>0.02082569807354814</v>
+        <v>0.008365220685732198</v>
       </c>
       <c r="E63">
-        <v>0.01103069341367338</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>2.256124025980818e-05</v>
+      </c>
+      <c r="F63">
+        <v>0.01590066807461591</v>
+      </c>
+      <c r="G63">
+        <v>-0.07767295701795593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01033699230273173</v>
+        <v>-0.04708426560275844</v>
       </c>
       <c r="C64">
-        <v>0.02996538992185848</v>
+        <v>0.04719173003056652</v>
       </c>
       <c r="D64">
-        <v>0.05774056852733388</v>
+        <v>0.006392722588500255</v>
       </c>
       <c r="E64">
-        <v>-0.005053727616322439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0009545204885309736</v>
+      </c>
+      <c r="F64">
+        <v>-0.006200098857735667</v>
+      </c>
+      <c r="G64">
+        <v>-0.07809761049244882</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01789253550017752</v>
+        <v>-0.07584955716210987</v>
       </c>
       <c r="C65">
-        <v>0.006716971867475485</v>
+        <v>0.0607157926152085</v>
       </c>
       <c r="D65">
-        <v>0.1025561919463048</v>
+        <v>0.01634809585986755</v>
       </c>
       <c r="E65">
-        <v>0.01498277718376259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02826531504844516</v>
+      </c>
+      <c r="F65">
+        <v>-0.0294253878666862</v>
+      </c>
+      <c r="G65">
+        <v>-0.02773981860308188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005410036054221092</v>
+        <v>-0.05075278455927287</v>
       </c>
       <c r="C66">
-        <v>-0.01132326829304478</v>
+        <v>0.1104535190358688</v>
       </c>
       <c r="D66">
-        <v>0.1284922034062641</v>
+        <v>0.01181092561294895</v>
       </c>
       <c r="E66">
-        <v>-0.002404006094919427</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02999876785639251</v>
+      </c>
+      <c r="F66">
+        <v>-0.03648818685385898</v>
+      </c>
+      <c r="G66">
+        <v>-0.08952227427302124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.006087877053196024</v>
+        <v>-0.05503168260939603</v>
       </c>
       <c r="C67">
-        <v>0.05817095487183089</v>
+        <v>0.03541837389317845</v>
       </c>
       <c r="D67">
-        <v>0.05692068878672301</v>
+        <v>-0.005966478509923734</v>
       </c>
       <c r="E67">
-        <v>0.008544928817672104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004356733800231449</v>
+      </c>
+      <c r="F67">
+        <v>0.01755770792903339</v>
+      </c>
+      <c r="G67">
+        <v>-0.06701571091139549</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.06432265643855561</v>
+        <v>-0.1537506376809166</v>
       </c>
       <c r="C68">
-        <v>0.2277283592364348</v>
+        <v>-0.2686604793194763</v>
       </c>
       <c r="D68">
-        <v>-0.1694106769697444</v>
+        <v>0.006666300994338674</v>
       </c>
       <c r="E68">
-        <v>-0.02117362327504372</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01297596538806694</v>
+      </c>
+      <c r="F68">
+        <v>0.03176649339247543</v>
+      </c>
+      <c r="G68">
+        <v>-0.03026067103890028</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001574782875598899</v>
+        <v>-0.08100140159717885</v>
       </c>
       <c r="C69">
-        <v>0.04382890387098122</v>
+        <v>0.06978543160748973</v>
       </c>
       <c r="D69">
-        <v>0.07253769888715708</v>
+        <v>-0.009158103562538903</v>
       </c>
       <c r="E69">
-        <v>0.01570747182751684</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02374591153677738</v>
+      </c>
+      <c r="F69">
+        <v>0.03711258155573577</v>
+      </c>
+      <c r="G69">
+        <v>-0.08076199022271424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04891604086425683</v>
+        <v>-0.1399622623682584</v>
       </c>
       <c r="C71">
-        <v>0.2020882740364419</v>
+        <v>-0.2276804865087768</v>
       </c>
       <c r="D71">
-        <v>-0.1192745287206851</v>
+        <v>-0.002008691606592205</v>
       </c>
       <c r="E71">
-        <v>-0.01309726121392638</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03292115322282117</v>
+      </c>
+      <c r="F71">
+        <v>0.01930138088225564</v>
+      </c>
+      <c r="G71">
+        <v>-0.06336239591120299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-7.496508421960134e-06</v>
+        <v>-0.08483574572628892</v>
       </c>
       <c r="C72">
-        <v>0.03728563710452175</v>
+        <v>0.07436641675676126</v>
       </c>
       <c r="D72">
-        <v>0.1098945888071477</v>
+        <v>-0.007920628618725858</v>
       </c>
       <c r="E72">
-        <v>0.01089203182362374</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.00247563881719413</v>
+      </c>
+      <c r="F72">
+        <v>-0.04201182351319083</v>
+      </c>
+      <c r="G72">
+        <v>-0.06683940993682723</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.06148940650196883</v>
+        <v>-0.3740446836795051</v>
       </c>
       <c r="C73">
-        <v>0.1821726895205205</v>
+        <v>0.1194574426073653</v>
       </c>
       <c r="D73">
-        <v>0.2022215875374762</v>
+        <v>0.02247372233008288</v>
       </c>
       <c r="E73">
-        <v>-0.01379653124771099</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07483393663227395</v>
+      </c>
+      <c r="F73">
+        <v>-0.5741907158843116</v>
+      </c>
+      <c r="G73">
+        <v>0.246667920349991</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.006976594613777675</v>
+        <v>-0.1051800144195426</v>
       </c>
       <c r="C74">
-        <v>0.07430022113360538</v>
+        <v>0.1103789266438856</v>
       </c>
       <c r="D74">
-        <v>0.1686494370341817</v>
+        <v>-0.009810420657021562</v>
       </c>
       <c r="E74">
-        <v>-0.002534605767648487</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01032232161429276</v>
+      </c>
+      <c r="F74">
+        <v>0.07110530534438358</v>
+      </c>
+      <c r="G74">
+        <v>-0.06424288253826789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01806013792843516</v>
+        <v>-0.2488181574974265</v>
       </c>
       <c r="C75">
-        <v>0.1696972645193459</v>
+        <v>0.1502908790708528</v>
       </c>
       <c r="D75">
-        <v>0.2848834005134294</v>
+        <v>-0.03143864420773786</v>
       </c>
       <c r="E75">
-        <v>-0.005153418046372287</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.0604350632047272</v>
+      </c>
+      <c r="F75">
+        <v>0.1749837171189146</v>
+      </c>
+      <c r="G75">
+        <v>0.05852344275364078</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.00644753290073301</v>
+        <v>-0.1224551683762844</v>
       </c>
       <c r="C76">
-        <v>0.1165199649603293</v>
+        <v>0.1123705131216796</v>
       </c>
       <c r="D76">
-        <v>0.2199427784692226</v>
+        <v>-0.02023189548073383</v>
       </c>
       <c r="E76">
-        <v>0.03777830261176892</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03835171159620616</v>
+      </c>
+      <c r="F76">
+        <v>0.1171262544565729</v>
+      </c>
+      <c r="G76">
+        <v>-0.04132946960462325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01675420201570476</v>
+        <v>-0.06822428561173494</v>
       </c>
       <c r="C77">
-        <v>0.03193404979912912</v>
+        <v>0.06151978115958523</v>
       </c>
       <c r="D77">
-        <v>0.05628301968330181</v>
+        <v>0.01169185733590664</v>
       </c>
       <c r="E77">
-        <v>-0.003185960415433711</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04272246873459789</v>
+      </c>
+      <c r="F77">
+        <v>-0.009473060631059628</v>
+      </c>
+      <c r="G77">
+        <v>-0.06160561906531021</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.00660391495955473</v>
+        <v>-0.04224875556373018</v>
       </c>
       <c r="C78">
-        <v>0.01849711871486807</v>
+        <v>0.0520401278651514</v>
       </c>
       <c r="D78">
-        <v>0.0479990151686004</v>
+        <v>0.005567908702156336</v>
       </c>
       <c r="E78">
-        <v>0.0001470285845217859</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02141128773148714</v>
+      </c>
+      <c r="F78">
+        <v>-0.03628745507471084</v>
+      </c>
+      <c r="G78">
+        <v>-0.08024191266651068</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01688817209654535</v>
+        <v>-0.05188127406285051</v>
       </c>
       <c r="C80">
-        <v>0.07172455401481435</v>
+        <v>0.07476352113858753</v>
       </c>
       <c r="D80">
-        <v>0.200360602172845</v>
+        <v>0.009503428092593077</v>
       </c>
       <c r="E80">
-        <v>0.7416130958762639</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04231698382598508</v>
+      </c>
+      <c r="F80">
+        <v>-0.007248225821030984</v>
+      </c>
+      <c r="G80">
+        <v>-0.5272671609790827</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01224212982028937</v>
+        <v>-0.1403607663137859</v>
       </c>
       <c r="C81">
-        <v>0.1040260294028428</v>
+        <v>0.09694884655046265</v>
       </c>
       <c r="D81">
-        <v>0.1658078796460242</v>
+        <v>-0.01572973624980176</v>
       </c>
       <c r="E81">
-        <v>0.01827693300641857</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03559869293321311</v>
+      </c>
+      <c r="F81">
+        <v>0.1350254658033564</v>
+      </c>
+      <c r="G81">
+        <v>-0.01947126162389865</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1249785111069765</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0717524480102102</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008291856858633147</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08966346665698632</v>
+      </c>
+      <c r="F82">
+        <v>0.03466916457918925</v>
+      </c>
+      <c r="G82">
+        <v>-0.03350066771091219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.00882944810744556</v>
+        <v>-0.03641330508744629</v>
       </c>
       <c r="C83">
-        <v>0.02526862354578144</v>
+        <v>0.02947422858264995</v>
       </c>
       <c r="D83">
-        <v>0.03078905447007651</v>
+        <v>0.005820002932947927</v>
       </c>
       <c r="E83">
-        <v>-0.005673215836466913</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02837916858572549</v>
+      </c>
+      <c r="F83">
+        <v>-0.0323948685328079</v>
+      </c>
+      <c r="G83">
+        <v>-0.05743712228060541</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02440661841602928</v>
+        <v>-0.2158728551246009</v>
       </c>
       <c r="C85">
-        <v>0.1390950310498018</v>
+        <v>0.1455047563573793</v>
       </c>
       <c r="D85">
-        <v>0.2671182351602435</v>
+        <v>-0.01932679775747146</v>
       </c>
       <c r="E85">
-        <v>0.004401653550851309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1008521961332203</v>
+      </c>
+      <c r="F85">
+        <v>0.138254280803741</v>
+      </c>
+      <c r="G85">
+        <v>0.1141323634451512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01083106753549708</v>
+        <v>-0.01346319890994708</v>
       </c>
       <c r="C86">
-        <v>0.02967495571142392</v>
+        <v>0.0283528329308778</v>
       </c>
       <c r="D86">
-        <v>0.03386676711776545</v>
+        <v>0.01262882245360065</v>
       </c>
       <c r="E86">
-        <v>-0.0382608405242619</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04711366343076771</v>
+      </c>
+      <c r="F86">
+        <v>-0.03206591103144984</v>
+      </c>
+      <c r="G86">
+        <v>-0.1695011155109629</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008951745471508801</v>
+        <v>-0.02285570683719245</v>
       </c>
       <c r="C87">
-        <v>0.005798863584503046</v>
+        <v>0.02347699003778911</v>
       </c>
       <c r="D87">
-        <v>0.05052310558213119</v>
+        <v>0.01227842712114089</v>
       </c>
       <c r="E87">
-        <v>-0.01083294984601904</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08589422853365772</v>
+      </c>
+      <c r="F87">
+        <v>-0.01660763577923288</v>
+      </c>
+      <c r="G87">
+        <v>-0.1067505138761485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02930027037803231</v>
+        <v>-0.09120314419019701</v>
       </c>
       <c r="C88">
-        <v>0.03205842495007302</v>
+        <v>0.0659928534216877</v>
       </c>
       <c r="D88">
-        <v>0.05144975761373029</v>
+        <v>0.02254550699473113</v>
       </c>
       <c r="E88">
-        <v>0.003459039475295771</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008624786973170248</v>
+      </c>
+      <c r="F88">
+        <v>0.01813407622371422</v>
+      </c>
+      <c r="G88">
+        <v>-0.07374362210933109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.094469426407548</v>
+        <v>-0.2340834870271708</v>
       </c>
       <c r="C89">
-        <v>0.381823295633081</v>
+        <v>-0.3686145389188527</v>
       </c>
       <c r="D89">
-        <v>-0.2344326838079252</v>
+        <v>0.0005147439368223301</v>
       </c>
       <c r="E89">
-        <v>0.02319747212297937</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01414455782438427</v>
+      </c>
+      <c r="F89">
+        <v>0.02879127413688987</v>
+      </c>
+      <c r="G89">
+        <v>-0.06575985328833292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07209281241198842</v>
+        <v>-0.2076460025168779</v>
       </c>
       <c r="C90">
-        <v>0.2974310224897854</v>
+        <v>-0.3195148748962824</v>
       </c>
       <c r="D90">
-        <v>-0.2081678321259442</v>
+        <v>-0.004065355313533934</v>
       </c>
       <c r="E90">
-        <v>-0.01831467690197338</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.003414004978153402</v>
+      </c>
+      <c r="F90">
+        <v>0.05126204960929136</v>
+      </c>
+      <c r="G90">
+        <v>-0.02609072383427046</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01449843228657725</v>
+        <v>-0.1889383036649837</v>
       </c>
       <c r="C91">
-        <v>0.1494377718447231</v>
+        <v>0.1391747213693558</v>
       </c>
       <c r="D91">
-        <v>0.2175586142834505</v>
+        <v>-0.02360721588617264</v>
       </c>
       <c r="E91">
-        <v>0.02252758806588415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0667986077268001</v>
+      </c>
+      <c r="F91">
+        <v>0.1510413132837895</v>
+      </c>
+      <c r="G91">
+        <v>-0.01156876001435317</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.04083740251026728</v>
+        <v>-0.2015533190613116</v>
       </c>
       <c r="C92">
-        <v>0.3150741594983605</v>
+        <v>-0.2565050700277122</v>
       </c>
       <c r="D92">
-        <v>-0.09643059896850274</v>
+        <v>-0.03800605805767916</v>
       </c>
       <c r="E92">
-        <v>-0.03272957069844122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03341521659779561</v>
+      </c>
+      <c r="F92">
+        <v>0.06065552203393487</v>
+      </c>
+      <c r="G92">
+        <v>-0.1281852326481338</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.07023920880537131</v>
+        <v>-0.2314983393733885</v>
       </c>
       <c r="C93">
-        <v>0.3174991652891047</v>
+        <v>-0.3160924473643152</v>
       </c>
       <c r="D93">
-        <v>-0.1844999084821533</v>
+        <v>-0.01082008244393392</v>
       </c>
       <c r="E93">
-        <v>-0.0420858451507846</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.007683560403753156</v>
+      </c>
+      <c r="F93">
+        <v>0.03279567407469717</v>
+      </c>
+      <c r="G93">
+        <v>-0.02660014546818602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03837437323940369</v>
+        <v>-0.3175632262249639</v>
       </c>
       <c r="C94">
-        <v>0.1695865037622796</v>
+        <v>0.1755706455384166</v>
       </c>
       <c r="D94">
-        <v>0.2308619529901398</v>
+        <v>-0.01850713348939262</v>
       </c>
       <c r="E94">
-        <v>-0.01088760442870373</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1735473883928104</v>
+      </c>
+      <c r="F94">
+        <v>0.4703323847190705</v>
+      </c>
+      <c r="G94">
+        <v>0.3293629965705724</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.001736895240045873</v>
+        <v>-0.09934396453787284</v>
       </c>
       <c r="C95">
-        <v>0.04054694159334245</v>
+        <v>0.08569529190939618</v>
       </c>
       <c r="D95">
-        <v>0.110959215882321</v>
+        <v>-0.009202520971403259</v>
       </c>
       <c r="E95">
-        <v>-0.133041401361134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07697703882382328</v>
+      </c>
+      <c r="F95">
+        <v>-0.1990498321287008</v>
+      </c>
+      <c r="G95">
+        <v>0.05730900340987981</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02118126563780193</v>
+        <v>-0.19728813823382</v>
       </c>
       <c r="C98">
-        <v>0.1637838604382141</v>
+        <v>0.04804466202728601</v>
       </c>
       <c r="D98">
-        <v>0.1289231501798446</v>
+        <v>-0.01215382035352293</v>
       </c>
       <c r="E98">
-        <v>-0.03471178531514298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.07058079560649286</v>
+      </c>
+      <c r="F98">
+        <v>-0.2402349050435726</v>
+      </c>
+      <c r="G98">
+        <v>0.01038451604103988</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009336624167699627</v>
+        <v>-0.009008395649853868</v>
       </c>
       <c r="C101">
-        <v>0.01793288763608644</v>
+        <v>0.02167747936916219</v>
       </c>
       <c r="D101">
-        <v>0.009631665988681306</v>
+        <v>0.008461977775522624</v>
       </c>
       <c r="E101">
-        <v>0.00289994257722773</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0007835344358712038</v>
+      </c>
+      <c r="F101">
+        <v>0.01582263134645556</v>
+      </c>
+      <c r="G101">
+        <v>-0.08163079863258198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02069055431383609</v>
+        <v>-0.1176276807542293</v>
       </c>
       <c r="C102">
-        <v>0.07276339699000968</v>
+        <v>0.08457517213955774</v>
       </c>
       <c r="D102">
-        <v>0.1209025199401096</v>
+        <v>0.0004162062791828134</v>
       </c>
       <c r="E102">
-        <v>0.005900777111999276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03551772301852645</v>
+      </c>
+      <c r="F102">
+        <v>0.041303012797169</v>
+      </c>
+      <c r="G102">
+        <v>0.001939617809238401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002091725418752236</v>
+        <v>-0.003359760445508628</v>
       </c>
       <c r="C103">
-        <v>0.01167753753161015</v>
+        <v>0.002770850899807995</v>
       </c>
       <c r="D103">
-        <v>0.01878437666970725</v>
+        <v>-5.778807139125481e-05</v>
       </c>
       <c r="E103">
-        <v>0.01461330391815516</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001265448644111111</v>
+      </c>
+      <c r="F103">
+        <v>0.008018740367540618</v>
+      </c>
+      <c r="G103">
+        <v>-0.01517696618740785</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9690167013931291</v>
+        <v>-0.02076889950829976</v>
       </c>
       <c r="C104">
-        <v>-0.206100425589452</v>
+        <v>-0.02871796297702235</v>
       </c>
       <c r="D104">
-        <v>-0.01618042754889774</v>
+        <v>0.987412398466213</v>
       </c>
       <c r="E104">
-        <v>0.03736563615447602</v>
+        <v>-0.05109702492788381</v>
+      </c>
+      <c r="F104">
+        <v>0.03904874081632893</v>
+      </c>
+      <c r="G104">
+        <v>0.0272042584658084</v>
       </c>
     </row>
   </sheetData>
